--- a/data/genes by family.xlsx
+++ b/data/genes by family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pharmacy\Desktop\My-repo-master\My-repo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kioussilab/Desktop/My-repo-master/My-repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79A3ED0B-9065-4124-8E8A-AD432A22D414}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D229F-76EE-A04F-A096-98B65A5B02C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8A9C6CA-A1DB-47FA-9F95-ECFD2BCD8C4C}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="26860" windowHeight="26720" xr2:uid="{D8A9C6CA-A1DB-47FA-9F95-ECFD2BCD8C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>Upregulated</t>
   </si>
@@ -391,6 +391,90 @@
   </si>
   <si>
     <t>Lhx9</t>
+  </si>
+  <si>
+    <t>Tcf24</t>
+  </si>
+  <si>
+    <t>Tfeb</t>
+  </si>
+  <si>
+    <t>Npas4</t>
+  </si>
+  <si>
+    <t>Npas3</t>
+  </si>
+  <si>
+    <t>Ncoa1</t>
+  </si>
+  <si>
+    <t>Myog</t>
+  </si>
+  <si>
+    <t>Myod1</t>
+  </si>
+  <si>
+    <t>Myc</t>
+  </si>
+  <si>
+    <t>Msc</t>
+  </si>
+  <si>
+    <t>Heyl</t>
+  </si>
+  <si>
+    <t>Hey2</t>
+  </si>
+  <si>
+    <t>Hand1</t>
+  </si>
+  <si>
+    <t>Arntl2</t>
+  </si>
+  <si>
+    <t>Bhlhe40</t>
+  </si>
+  <si>
+    <t>Npas2</t>
+  </si>
+  <si>
+    <t>Twist2</t>
+  </si>
+  <si>
+    <t>Ahr</t>
+  </si>
+  <si>
+    <t>Bhlhe22</t>
+  </si>
+  <si>
+    <t>Mitf</t>
+  </si>
+  <si>
+    <t>Tfec</t>
+  </si>
+  <si>
+    <t>Bhlhe41</t>
+  </si>
+  <si>
+    <t>Lyl1</t>
+  </si>
+  <si>
+    <t>Hey1</t>
+  </si>
+  <si>
+    <t>Hand2</t>
+  </si>
+  <si>
+    <t>Bhlh9</t>
+  </si>
+  <si>
+    <t>Mycn</t>
+  </si>
+  <si>
+    <t>Mlxipl</t>
+  </si>
+  <si>
+    <t>Arnt2</t>
   </si>
 </sst>
 </file>
@@ -431,10 +515,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,20 +833,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC112F7D-46B6-414C-8B2B-309D7BBCB87F}">
-  <dimension ref="C1:J40"/>
+  <dimension ref="C1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -772,23 +856,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -796,44 +871,32 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -841,127 +904,175 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1"/>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>22</v>
       </c>
@@ -969,13 +1080,16 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>23</v>
       </c>
@@ -983,13 +1097,16 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>24</v>
       </c>
@@ -997,13 +1114,16 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>25</v>
       </c>
@@ -1011,13 +1131,16 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>26</v>
       </c>
@@ -1025,13 +1148,16 @@
         <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>27</v>
       </c>
@@ -1039,13 +1165,16 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>28</v>
       </c>
@@ -1053,13 +1182,16 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>29</v>
       </c>
@@ -1067,13 +1199,16 @@
         <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>30</v>
       </c>
@@ -1081,106 +1216,133 @@
         <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
       <c r="J26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="L26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>42</v>
       </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
       <c r="J27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>43</v>
       </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
       <c r="J28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>44</v>
       </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
       <c r="J29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>45</v>
       </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
       <c r="J30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="3"/>
       <c r="J33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>49</v>
       </c>
       <c r="J34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3"/>
       <c r="J36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>52</v>
       </c>
@@ -1188,28 +1350,47 @@
         <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
